--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mesham</t>
   </si>
@@ -19,16 +19,25 @@
     <t>Suryan</t>
   </si>
   <si>
+    <t>Result1</t>
+  </si>
+  <si>
     <t>Vrishabham</t>
   </si>
   <si>
     <t>Chandran</t>
   </si>
   <si>
+    <t>Result2</t>
+  </si>
+  <si>
     <t>Mithunam</t>
   </si>
   <si>
     <t>Mangalan</t>
+  </si>
+  <si>
+    <t>Result3</t>
   </si>
   <si>
     <t>Karkatakam</t>
@@ -314,32 +323,41 @@
       <c r="C1" s="2">
         <v>1.0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>2.0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>3.0</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>4.0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
     <t>Suryan</t>
   </si>
   <si>
-    <t>Result1</t>
+    <t>Good will happen</t>
   </si>
   <si>
     <t>Vrishabham</t>
@@ -28,7 +28,7 @@
     <t>Chandran</t>
   </si>
   <si>
-    <t>Result2</t>
+    <t>Follow remedy 1</t>
   </si>
   <si>
     <t>Mithunam</t>
@@ -37,7 +37,7 @@
     <t>Mangalan</t>
   </si>
   <si>
-    <t>Result3</t>
+    <t>Follow remedy 2</t>
   </si>
   <si>
     <t>Karkatakam</t>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -55,19 +55,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF808080"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,18 +74,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,13 +304,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>1.0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -331,13 +318,13 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2.0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -345,13 +332,13 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3.0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -359,39 +346,27 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1">
         <v>4.0</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="C5" s="2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
         <v>5.0</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="C6" s="2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
         <v>6.0</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
